--- a/_study/CljStudy/my-pjt/building_list.xlsx
+++ b/_study/CljStudy/my-pjt/building_list.xlsx
@@ -3,11 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\_study\CljStudy\my-pjt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
-    <sheet name="Building List(Rev.B)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -32,23 +37,23 @@
     <definedName name="___1A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="___A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="__123Graph_A" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_ACurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_ACurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="__123Graph_B" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_BCurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_BPERFORMANCE" hidden="1">[4]BQMPALOC!#REF!</definedName>
-    <definedName name="__123Graph_C" hidden="1">[5]DRUM!#REF!</definedName>
+    <definedName name="__123Graph_BCurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_BPERFORMANCE" hidden="1">[3]BQMPALOC!#REF!</definedName>
+    <definedName name="__123Graph_C" hidden="1">[4]DRUM!#REF!</definedName>
     <definedName name="__123Graph_D" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_E" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_F" hidden="1">[6]B!#REF!</definedName>
-    <definedName name="__123Graph_LBL_A" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_LBL_B" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">[5]DRUM!#REF!</definedName>
-    <definedName name="__123Graph_XCurrent" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_F" hidden="1">[5]B!#REF!</definedName>
+    <definedName name="__123Graph_LBL_A" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_LBL_B" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[4]DRUM!#REF!</definedName>
+    <definedName name="__123Graph_XCurrent" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="__1A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="__A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_001" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="_002" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
-    <definedName name="_1" hidden="1">[4]BQMPALOC!#REF!</definedName>
+    <definedName name="_1" hidden="1">[3]BQMPALOC!#REF!</definedName>
     <definedName name="_11A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_11A1__1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_11A1__1_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
@@ -69,21 +74,21 @@
     <definedName name="_1F" hidden="1">[1]대비표!#REF!</definedName>
     <definedName name="_2A1_" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_2a129_" hidden="1">{"Offgrid",#N/A,FALSE,"OFFGRID";"Region",#N/A,FALSE,"REGION";"Offgrid -2",#N/A,FALSE,"OFFGRID";"WTP",#N/A,FALSE,"WTP";"WTP -2",#N/A,FALSE,"WTP";"Project",#N/A,FALSE,"PROJECT";"Summary -2",#N/A,FALSE,"SUMMARY"}</definedName>
-    <definedName name="_2F" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_2F" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_3_0__123Grap" hidden="1">#REF!</definedName>
-    <definedName name="_3S" hidden="1">'[8]6PILE  (돌출)'!#REF!</definedName>
+    <definedName name="_3S" hidden="1">'[7]6PILE  (돌출)'!#REF!</definedName>
     <definedName name="_4_0_0_F" hidden="1">[1]대비표!#REF!</definedName>
-    <definedName name="_4_0_F" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_4_0_F" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_4a130_" hidden="1">{"Offgrid",#N/A,FALSE,"OFFGRID";"Region",#N/A,FALSE,"REGION";"Offgrid -2",#N/A,FALSE,"OFFGRID";"WTP",#N/A,FALSE,"WTP";"WTP -2",#N/A,FALSE,"WTP";"Project",#N/A,FALSE,"PROJECT";"Summary -2",#N/A,FALSE,"SUMMARY"}</definedName>
     <definedName name="_5_0_0_F" hidden="1">[1]산근!#REF!</definedName>
-    <definedName name="_5_0_S" hidden="1">'[8]6PILE  (돌출)'!#REF!</definedName>
-    <definedName name="_6_2___Parse" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_5_0_S" hidden="1">'[7]6PILE  (돌출)'!#REF!</definedName>
+    <definedName name="_6_2___Parse" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_6F" hidden="1">[1]대비표!#REF!</definedName>
-    <definedName name="_7_2_0_Parse" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="_7_2_0_Parse" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="_9_0_0_F" hidden="1">'[1]집계표(OPTION)'!#REF!</definedName>
     <definedName name="_A1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_BB1" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
-    <definedName name="_Dist_Bin" hidden="1">[9]찍기!#REF!</definedName>
+    <definedName name="_Dist_Bin" hidden="1">[8]찍기!#REF!</definedName>
     <definedName name="_er1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" hidden="1">#REF!</definedName>
@@ -109,8 +114,8 @@
     <definedName name="_Sort" hidden="1">#REF!</definedName>
     <definedName name="_t1" hidden="1">#REF!</definedName>
     <definedName name="_t2" hidden="1">#REF!</definedName>
-    <definedName name="_Table1_In1" hidden="1">[10]inter!#REF!</definedName>
-    <definedName name="_Table1_Out" hidden="1">[10]inter!#REF!</definedName>
+    <definedName name="_Table1_In1" hidden="1">[9]inter!#REF!</definedName>
+    <definedName name="_Table1_Out" hidden="1">[9]inter!#REF!</definedName>
     <definedName name="_WJS1" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="_woogi" hidden="1">#REF!</definedName>
     <definedName name="_woogi2" hidden="1">#REF!</definedName>
@@ -953,10 +958,10 @@
     <definedName name="PKAAA" hidden="1">#REF!</definedName>
     <definedName name="PKBB" hidden="1">#REF!</definedName>
     <definedName name="PKCC" hidden="1">#REF!</definedName>
-    <definedName name="PKDD" hidden="1">[11]기계내역서!#REF!</definedName>
+    <definedName name="PKDD" hidden="1">[10]기계내역서!#REF!</definedName>
     <definedName name="PO">{"Book1","DOC&amp;DWG.xls"}</definedName>
     <definedName name="PRAYER" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Building List(Rev.B)'!$B$2:$AP$313</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$AP$313</definedName>
     <definedName name="ProdForm" hidden="1">#REF!</definedName>
     <definedName name="Product" hidden="1">#REF!</definedName>
     <definedName name="Q" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
@@ -1173,7 +1178,7 @@
     <definedName name="SX" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="TableSummary" hidden="1">#REF!</definedName>
     <definedName name="tbl_ProdInfo" hidden="1">#REF!</definedName>
-    <definedName name="TEMP" hidden="1">'[12]EQT-ESTN'!#REF!</definedName>
+    <definedName name="TEMP" hidden="1">'[11]EQT-ESTN'!#REF!</definedName>
     <definedName name="teri" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="teri_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="teri_1_1" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
@@ -1246,8 +1251,8 @@
     <definedName name="Waste_5_2" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="WEEE" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="weight" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="weki_9701.xls" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
-    <definedName name="wekir9701.xls" hidden="1">'[3]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="weki_9701.xls" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
+    <definedName name="wekir9701.xls" hidden="1">'[2]Eq. Mobilization'!#REF!</definedName>
     <definedName name="WEQWE" hidden="1">{#N/A,#N/A,FALSE,"B-001";#N/A,#N/A,FALSE,"B-002";#N/A,#N/A,FALSE,"B-003";#N/A,#N/A,FALSE,"B-004";#N/A,#N/A,FALSE,"B-005";#N/A,#N/A,FALSE,"B-010";#N/A,#N/A,FALSE,"C-001";#N/A,#N/A,FALSE,"C-002";#N/A,#N/A,FALSE,"C-003";#N/A,#N/A,FALSE,"C-004";#N/A,#N/A,FALSE,"C-005";#N/A,#N/A,FALSE,"C-010";#N/A,#N/A,FALSE,"D-001";#N/A,#N/A,FALSE,"D-003";#N/A,#N/A,FALSE,"E-001";#N/A,#N/A,FALSE,"E-002";#N/A,#N/A,FALSE,"E-011";#N/A,#N/A,FALSE,"E-012";#N/A,#N/A,FALSE,"F-001";#N/A,#N/A,FALSE,"F-005";#N/A,#N/A,FALSE,"J-001";#N/A,#N/A,FALSE,"J-002";#N/A,#N/A,FALSE,"J-003";#N/A,#N/A,FALSE,"J-004";#N/A,#N/A,FALSE,"J-005";#N/A,#N/A,FALSE,"J-006";#N/A,#N/A,FALSE,"J-008";#N/A,#N/A,FALSE,"J-009";#N/A,#N/A,FALSE,"J-011";#N/A,#N/A,FALSE,"J-012";#N/A,#N/A,FALSE,"J-014";#N/A,#N/A,FALSE,"J-017";#N/A,#N/A,FALSE,"L-001";#N/A,#N/A,FALSE,"L-002";#N/A,#N/A,FALSE,"L-003";#N/A,#N/A,FALSE,"L-004";#N/A,#N/A,FALSE,"L-005";#N/A,#N/A,FALSE,"L-006";#N/A,#N/A,FALSE,"L-007";#N/A,#N/A,FALSE,"L-051";#N/A,#N/A,FALSE,"L-052";#N/A,#N/A,FALSE,"L-053";#N/A,#N/A,FALSE,"L-054";#N/A,#N/A,FALSE,"L-058";#N/A,#N/A,FALSE,"LR-001";#N/A,#N/A,FALSE,"U-001";#N/A,#N/A,FALSE,"U-002";#N/A,#N/A,FALSE,"U-010";#N/A,#N/A,FALSE,"U-051";#N/A,#N/A,FALSE,"UC-001";#N/A,#N/A,FALSE,"SIDE FILTER";#N/A,#N/A,FALSE,"CI-001-3";#N/A,#N/A,FALSE,"Load Arm"}</definedName>
     <definedName name="who_are" hidden="1">#REF!</definedName>
     <definedName name="who_are2" hidden="1">#REF!</definedName>
@@ -1434,7 +1439,7 @@
     <definedName name="견적2" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="견적SHEET" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="견적내역" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="견적조건" hidden="1">[13]산근!#REF!</definedName>
+    <definedName name="견적조건" hidden="1">[12]산근!#REF!</definedName>
     <definedName name="견적조건8" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="경비2차분" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="계약고햔황2" hidden="1">#REF!</definedName>
@@ -1567,7 +1572,7 @@
     <definedName name="ㅂㅂㅂㅂㅂㅂㅂ" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
     <definedName name="바쓔ㅜㅇ" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
     <definedName name="박성민" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
-    <definedName name="벽강관파일" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="벽강관파일" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="벽체" hidden="1">{#N/A,#N/A,FALSE,"혼합골재"}</definedName>
     <definedName name="변형" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="보조기층" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
@@ -1620,7 +1625,7 @@
     <definedName name="ㅇㄴㅇㄴ" hidden="1">{#N/A,#N/A,FALSE,"포장2"}</definedName>
     <definedName name="ㅇㄷㄴㄶㅎ" hidden="1">{#N/A,#N/A,FALSE,"골재소요량";#N/A,#N/A,FALSE,"골재소요량"}</definedName>
     <definedName name="ㅇ롤옹롤ㅇ" hidden="1">{#N/A,#N/A,FALSE,"운반시간"}</definedName>
-    <definedName name="ㅇㅇㄹ" hidden="1">'[14]예산작성기준(전기)'!#REF!</definedName>
+    <definedName name="ㅇㅇㄹ" hidden="1">'[13]예산작성기준(전기)'!#REF!</definedName>
     <definedName name="ㅇ헝" hidden="1">{#N/A,#N/A,TRUE,"Basic";#N/A,#N/A,TRUE,"EXT-TABLE";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"INT-Table";#N/A,#N/A,TRUE,"STEEL";#N/A,#N/A,TRUE,"Door"}</definedName>
     <definedName name="아" hidden="1">{#N/A,#N/A,FALSE,"배수2"}</definedName>
     <definedName name="안" hidden="1">{#N/A,#N/A,FALSE,"포장2"}</definedName>
@@ -1654,7 +1659,7 @@
     <definedName name="자산" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="자산1" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="자운" hidden="1">#REF!</definedName>
-    <definedName name="잔교" hidden="1">[7]노임단가!#REF!</definedName>
+    <definedName name="잔교" hidden="1">[6]노임단가!#REF!</definedName>
     <definedName name="장동">BlankMacro1</definedName>
     <definedName name="장비">BlankMacro1</definedName>
     <definedName name="장비동원">BlankMacro1</definedName>
@@ -1667,7 +1672,7 @@
     <definedName name="전기내역" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="전열" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
     <definedName name="제관공사" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="조직표현장" hidden="1">'[15]간접비 총괄표'!$I$10:$I$1248</definedName>
+    <definedName name="조직표현장" hidden="1">'[14]간접비 총괄표'!$I$10:$I$1248</definedName>
     <definedName name="중점추진" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="진" hidden="1">{#N/A,#N/A,FALSE,"2~8번"}</definedName>
     <definedName name="집계" hidden="1">{#N/A,#N/A,FALSE,"명세표"}</definedName>
@@ -1740,7 +1745,7 @@
     <definedName name="해양인원" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="해양중점3" hidden="1">{#N/A,#N/A,TRUE,"LOADCOVE";#N/A,#N/A,TRUE,"PAGE001";#N/A,#N/A,TRUE,"PAGE002";#N/A,#N/A,TRUE,"PAGE003";#N/A,#N/A,TRUE,"PAGE004";#N/A,#N/A,TRUE,"PAGE005";#N/A,#N/A,TRUE,"PAGE006";#N/A,#N/A,TRUE,"PAGE007";#N/A,#N/A,TRUE,"PAGE008";#N/A,#N/A,TRUE,"PAGE009";#N/A,#N/A,TRUE,"PAGE010";#N/A,#N/A,TRUE,"PAGE011";#N/A,#N/A,TRUE,"PAGE012";#N/A,#N/A,TRUE,"PAGE013"}</definedName>
     <definedName name="햐ㅓㅈ바허ㅏㅣ농하ㅗㅎ" hidden="1">{#N/A,#N/A,FALSE,"CCTV"}</definedName>
-    <definedName name="현장" hidden="1">'[16]BREAKDOWN(철거설치)'!$CH$24</definedName>
+    <definedName name="현장" hidden="1">'[15]BREAKDOWN(철거설치)'!$CH$24</definedName>
     <definedName name="현장시공" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="현장지도" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
     <definedName name="현지공사비" hidden="1">{"'장비'!$A$3:$M$12"}</definedName>
@@ -10057,679 +10062,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="PROFIT"/>
-      <sheetName val="P-L"/>
-      <sheetName val="BUDg"/>
-      <sheetName val="예산"/>
-      <sheetName val="FAS"/>
-      <sheetName val="FCST"/>
-      <sheetName val="M_H"/>
-      <sheetName val="F_MONY"/>
-      <sheetName val="환보고"/>
-      <sheetName val="환자료"/>
-      <sheetName val="inter"/>
-      <sheetName val="노무비(MM)"/>
-      <sheetName val="노무비(비용)"/>
-      <sheetName val="공사비"/>
-      <sheetName val="Sheet6"/>
-      <sheetName val="Sheet7"/>
-      <sheetName val="Sheet8"/>
-      <sheetName val="Sheet9"/>
-      <sheetName val="Sheet10"/>
-      <sheetName val="Sheet11"/>
-      <sheetName val="Sheet12"/>
-      <sheetName val="Sheet13"/>
-      <sheetName val="Sheet14"/>
-      <sheetName val="Sheet15"/>
-      <sheetName val="Sheet16"/>
-      <sheetName val="Module1"/>
-      <sheetName val="Module2"/>
-      <sheetName val="Module3"/>
-      <sheetName val="COA-17"/>
-      <sheetName val="C-18"/>
-      <sheetName val="별총"/>
-      <sheetName val="갑지"/>
-      <sheetName val="h-013211-2"/>
-      <sheetName val="SHL"/>
-      <sheetName val="산근"/>
-      <sheetName val="총괄표"/>
-      <sheetName val="Plan"/>
-      <sheetName val="POWER"/>
-      <sheetName val="SG"/>
-      <sheetName val="인원계획"/>
-      <sheetName val="TTL"/>
-      <sheetName val="CAT_5"/>
-      <sheetName val="도"/>
-      <sheetName val="LinerWt"/>
-      <sheetName val="일위대가"/>
-      <sheetName val="기계내역서"/>
-      <sheetName val="12CGOU"/>
-      <sheetName val="INSTR"/>
-      <sheetName val="DESIGN"/>
-      <sheetName val="OCT.FDN"/>
-      <sheetName val="Summary Sheets"/>
-      <sheetName val="EQUIP LIST"/>
-      <sheetName val="CST_STAT"/>
-      <sheetName val="기준"/>
-      <sheetName val="Cash2"/>
-      <sheetName val="Z"/>
-      <sheetName val="공조위생"/>
-      <sheetName val="Input"/>
-      <sheetName val="Activity"/>
-      <sheetName val="Crew"/>
-      <sheetName val="Piping"/>
-      <sheetName val="Pipe Supports"/>
-      <sheetName val="VXXXXX"/>
-      <sheetName val="3. GROUNDING SYSTEM"/>
-      <sheetName val="boq"/>
-      <sheetName val="FILTER"/>
-      <sheetName val="blk"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Process Piping"/>
-      <sheetName val="대비표"/>
-      <sheetName val="EQT-ESTN"/>
-      <sheetName val="당진1,2호기전선관설치및접지4차공사내역서-을지"/>
-      <sheetName val="일위대가표"/>
-      <sheetName val="집계표"/>
-      <sheetName val="노임9월"/>
-      <sheetName val="WORK-VOL"/>
-      <sheetName val="9_Material Rates"/>
-      <sheetName val="1_References"/>
-      <sheetName val="실행내역"/>
-      <sheetName val="rate"/>
-      <sheetName val="단가"/>
-      <sheetName val="Project-A"/>
-      <sheetName val="Chart"/>
-      <sheetName val="EQUIP"/>
-      <sheetName val="견"/>
-      <sheetName val="보온자재단가표"/>
-      <sheetName val="작성기준"/>
-      <sheetName val="Alum."/>
-      <sheetName val="Data"/>
-      <sheetName val="Calc"/>
-      <sheetName val="LEGEND"/>
-      <sheetName val="look-up"/>
-      <sheetName val="AILC004"/>
-      <sheetName val="Fax"/>
-      <sheetName val="Material and Manpower data"/>
-      <sheetName val="Pricing Summary"/>
-      <sheetName val="B"/>
-      <sheetName val="P-HOT.XLS"/>
-      <sheetName val="내역서"/>
-      <sheetName val="SKETCH"/>
-      <sheetName val="2.2 STAFF Scedule"/>
-      <sheetName val="갑지1"/>
-      <sheetName val="PROCURE"/>
-      <sheetName val="조명시설"/>
-      <sheetName val="CALCULATION"/>
-      <sheetName val="PRO_DCI"/>
-      <sheetName val="INST_DCI"/>
-      <sheetName val="HVAC_DCI"/>
-      <sheetName val="PIPE_DCI"/>
-      <sheetName val="환율"/>
-      <sheetName val="CONTENTS"/>
-      <sheetName val="현장지지물물량"/>
-      <sheetName val="Code"/>
-      <sheetName val="금액내역서"/>
-      <sheetName val="steam table"/>
-      <sheetName val="WORK"/>
-      <sheetName val="HORI. VESSEL"/>
-      <sheetName val="BQ"/>
-      <sheetName val="@PRICE1"/>
-      <sheetName val="최종단가"/>
-      <sheetName val="#REF"/>
-      <sheetName val="장비"/>
-      <sheetName val="노무"/>
-      <sheetName val="자재"/>
-      <sheetName val="산근1"/>
-      <sheetName val="토목품셈"/>
-      <sheetName val="견적"/>
-      <sheetName val="General Data"/>
-      <sheetName val="Quantity"/>
-      <sheetName val="BQMPALOC"/>
-      <sheetName val="입출재고현황 (2)"/>
-      <sheetName val="AREA"/>
-      <sheetName val="바닥판"/>
-      <sheetName val="TYPE1"/>
-      <sheetName val="철근량"/>
-      <sheetName val="토목주소"/>
-      <sheetName val="프랜트면허"/>
-      <sheetName val="역T형"/>
-      <sheetName val="PILE"/>
-      <sheetName val="내역"/>
-      <sheetName val="초기화면"/>
-      <sheetName val="95삼성급(본사)"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Rate Analysis"/>
-      <sheetName val="Engg-Exec-2"/>
-      <sheetName val="Site-Precom-2"/>
-      <sheetName val="Collab"/>
-      <sheetName val="Transport"/>
-      <sheetName val="Civil 1"/>
-      <sheetName val="Civil 2"/>
-      <sheetName val="Civil 3"/>
-      <sheetName val="Site 1"/>
-      <sheetName val="Site 2"/>
-      <sheetName val="Site 3"/>
-      <sheetName val="Site Faci"/>
-      <sheetName val="Cont"/>
-      <sheetName val="Engg-Exec-1"/>
-      <sheetName val="Site-Precom-1"/>
-      <sheetName val="Site-Precom-Vendor"/>
-      <sheetName val="Risk-Anal"/>
-      <sheetName val="Ranges"/>
-      <sheetName val="User"/>
-      <sheetName val="insulation"/>
-      <sheetName val="Sheet5"/>
-      <sheetName val="97 사업추정(WEKI)"/>
-      <sheetName val="GiaVL"/>
-      <sheetName val="Code_Magics"/>
-      <sheetName val="MP MOB"/>
-      <sheetName val="Inst Matl Table"/>
-      <sheetName val="Inst_Type"/>
-      <sheetName val="Loop Type"/>
-      <sheetName val="Tracing"/>
-      <sheetName val="Hookup"/>
-      <sheetName val="WBS"/>
-      <sheetName val="재료비"/>
-      <sheetName val="Man Hole"/>
-      <sheetName val="대로근거"/>
-      <sheetName val="중로근거"/>
-      <sheetName val="조건표"/>
-      <sheetName val="내역표지"/>
-      <sheetName val="산출2-기기동력"/>
-      <sheetName val="40총괄"/>
-      <sheetName val="40집계"/>
-      <sheetName val="30신설일위대가"/>
-      <sheetName val="30집계표"/>
-      <sheetName val="NSCP견적물량"/>
-      <sheetName val="경비"/>
-      <sheetName val="찍기"/>
-      <sheetName val="TABLES"/>
-      <sheetName val="GROUNDING SYSTEM"/>
-      <sheetName val="El(Increased)"/>
-      <sheetName val="집계표(OPTION)"/>
-      <sheetName val="1. 설계조건 2.단면가정 3. 하중계산"/>
-      <sheetName val="DATA 입력란"/>
-      <sheetName val="공사비예산서(토목분)"/>
-      <sheetName val="가격조사서"/>
-      <sheetName val="연돌일위집계"/>
-      <sheetName val="HANDHOLE(2)"/>
-      <sheetName val="PAD TR보호대기초"/>
-      <sheetName val="가로등기초"/>
-      <sheetName val="Civil"/>
-      <sheetName val="DB@Acess"/>
-      <sheetName val="공사내역"/>
-      <sheetName val="D-3109"/>
-      <sheetName val="당초"/>
-      <sheetName val="배명(단가)"/>
-      <sheetName val="TANK"/>
-      <sheetName val="LTR-2"/>
-      <sheetName val="Car park lease"/>
-      <sheetName val="C1"/>
-      <sheetName val="sum1 (2)"/>
-      <sheetName val="s"/>
-      <sheetName val="대비"/>
-      <sheetName val="철근단위중량"/>
-      <sheetName val="단면가정"/>
-      <sheetName val="설계조건"/>
-      <sheetName val="PI"/>
-      <sheetName val="Master_Data"/>
-      <sheetName val="8.PILE  (돌출)"/>
-      <sheetName val="CTEMCOST"/>
-      <sheetName val="부하(성남)"/>
-      <sheetName val="SILICATE"/>
-      <sheetName val="Default"/>
-      <sheetName val="Utility and Fire flange"/>
-      <sheetName val="IBASE"/>
-      <sheetName val="소화실적"/>
-      <sheetName val="SCHEDULE"/>
-      <sheetName val="bldg list"/>
-      <sheetName val="L V Separator"/>
-      <sheetName val="Eq. Mobilization"/>
-      <sheetName val="노임단가"/>
-      <sheetName val="DRUM"/>
-      <sheetName val="계수시트"/>
-      <sheetName val="MTO REV.2(ARMOR)"/>
-      <sheetName val="Steel-Main Work"/>
-      <sheetName val="parts-V2"/>
-      <sheetName val="전기"/>
-      <sheetName val="ABB"/>
-      <sheetName val="C-301E~305E"/>
-      <sheetName val="M3산출"/>
-      <sheetName val="SM1-09"/>
-      <sheetName val="SM2-09"/>
-      <sheetName val="BAND(200)"/>
-      <sheetName val="BD-09"/>
-      <sheetName val="EL 표면적"/>
-      <sheetName val="MT-09"/>
-      <sheetName val="980731"/>
-      <sheetName val="실행철강하도"/>
-      <sheetName val="jobhist"/>
-      <sheetName val="DATE"/>
-      <sheetName val="MK2-1"/>
-      <sheetName val="초임연봉"/>
-      <sheetName val="시가지우회도로공내역서"/>
-      <sheetName val="TOTAL"/>
-      <sheetName val="영업소실적"/>
-      <sheetName val="D2old"/>
-      <sheetName val="D2"/>
-      <sheetName val="D1.1"/>
-      <sheetName val="Library"/>
-      <sheetName val="D1X"/>
-      <sheetName val="D2X"/>
-      <sheetName val="D2.1"/>
-      <sheetName val="Checklist"/>
-      <sheetName val="D4"/>
-      <sheetName val="Administrative Prices"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Proj Cost Sumry"/>
-      <sheetName val="Wt of Mod."/>
-      <sheetName val="Sheet4"/>
-      <sheetName val="Ex-Rate"/>
-      <sheetName val="날개벽(좌,우=60도-4개)"/>
-      <sheetName val="BM"/>
-      <sheetName val="2000년1차"/>
-      <sheetName val="Bid Summary"/>
-      <sheetName val="eq_data"/>
-      <sheetName val="장비검사 사진"/>
-      <sheetName val="15100"/>
-      <sheetName val="SPEC"/>
-      <sheetName val="EAS"/>
-      <sheetName val="HX"/>
-      <sheetName val="백분율"/>
-      <sheetName val="DHEQSUPT"/>
-      <sheetName val="Engineering"/>
-      <sheetName val="PriceSummary"/>
-      <sheetName val="토공정보"/>
-      <sheetName val="두앙"/>
-      <sheetName val="2"/>
-      <sheetName val="Summary_Sheets"/>
-      <sheetName val="OCT_FDN"/>
-      <sheetName val="Pipe_Supports"/>
-      <sheetName val="Process_Piping"/>
-      <sheetName val="EQUIP_LIST"/>
-      <sheetName val="9_Material_Rates"/>
-      <sheetName val="3__GROUNDING_SYSTEM"/>
-      <sheetName val="Material_and_Manpower_data"/>
-      <sheetName val="Pricing_Summary"/>
-      <sheetName val="Alum_"/>
-      <sheetName val="P-HOT_XLS"/>
-      <sheetName val="steam_table"/>
-      <sheetName val="2_2_STAFF_Scedule"/>
-      <sheetName val="Civil_1"/>
-      <sheetName val="Civil_2"/>
-      <sheetName val="Civil_3"/>
-      <sheetName val="Site_1"/>
-      <sheetName val="Site_2"/>
-      <sheetName val="Site_3"/>
-      <sheetName val="Site_Faci"/>
-      <sheetName val="Rate_Analysis"/>
-      <sheetName val="HORI__VESSEL"/>
-      <sheetName val="입출재고현황_(2)"/>
-      <sheetName val="Man_Hole"/>
-      <sheetName val="MP_MOB"/>
-      <sheetName val="GROUNDING_SYSTEM"/>
-      <sheetName val="97_사업추정(WEKI)"/>
-      <sheetName val="Inst_Matl_Table"/>
-      <sheetName val="Loop_Type"/>
-      <sheetName val="PAD_TR보호대기초"/>
-      <sheetName val="1__설계조건_2_단면가정_3__하중계산"/>
-      <sheetName val="DATA_입력란"/>
-      <sheetName val="General_Data"/>
-      <sheetName val="Car_park_lease"/>
-      <sheetName val="Utility_and_Fire_flange"/>
-      <sheetName val="sum1_(2)"/>
-      <sheetName val="L_V_Separator"/>
-      <sheetName val="Eq__Mobilization"/>
-      <sheetName val="8_PILE__(돌출)"/>
-      <sheetName val="bldg_list"/>
-      <sheetName val="IN"/>
-      <sheetName val="CASH"/>
-      <sheetName val="MEXICO-C"/>
-      <sheetName val="골조시행"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
-      <sheetData sheetId="63" refreshError="1"/>
-      <sheetData sheetId="64" refreshError="1"/>
-      <sheetData sheetId="65" refreshError="1"/>
-      <sheetData sheetId="66" refreshError="1"/>
-      <sheetData sheetId="67" refreshError="1"/>
-      <sheetData sheetId="68" refreshError="1"/>
-      <sheetData sheetId="69" refreshError="1"/>
-      <sheetData sheetId="70" refreshError="1"/>
-      <sheetData sheetId="71" refreshError="1"/>
-      <sheetData sheetId="72" refreshError="1"/>
-      <sheetData sheetId="73" refreshError="1"/>
-      <sheetData sheetId="74" refreshError="1"/>
-      <sheetData sheetId="75" refreshError="1"/>
-      <sheetData sheetId="76" refreshError="1"/>
-      <sheetData sheetId="77" refreshError="1"/>
-      <sheetData sheetId="78" refreshError="1"/>
-      <sheetData sheetId="79" refreshError="1"/>
-      <sheetData sheetId="80" refreshError="1"/>
-      <sheetData sheetId="81" refreshError="1"/>
-      <sheetData sheetId="82" refreshError="1"/>
-      <sheetData sheetId="83" refreshError="1"/>
-      <sheetData sheetId="84" refreshError="1"/>
-      <sheetData sheetId="85" refreshError="1"/>
-      <sheetData sheetId="86" refreshError="1"/>
-      <sheetData sheetId="87" refreshError="1"/>
-      <sheetData sheetId="88" refreshError="1"/>
-      <sheetData sheetId="89" refreshError="1"/>
-      <sheetData sheetId="90" refreshError="1"/>
-      <sheetData sheetId="91" refreshError="1"/>
-      <sheetData sheetId="92" refreshError="1"/>
-      <sheetData sheetId="93" refreshError="1"/>
-      <sheetData sheetId="94" refreshError="1"/>
-      <sheetData sheetId="95" refreshError="1"/>
-      <sheetData sheetId="96" refreshError="1"/>
-      <sheetData sheetId="97" refreshError="1"/>
-      <sheetData sheetId="98" refreshError="1"/>
-      <sheetData sheetId="99" refreshError="1"/>
-      <sheetData sheetId="100" refreshError="1"/>
-      <sheetData sheetId="101" refreshError="1"/>
-      <sheetData sheetId="102" refreshError="1"/>
-      <sheetData sheetId="103" refreshError="1"/>
-      <sheetData sheetId="104" refreshError="1"/>
-      <sheetData sheetId="105" refreshError="1"/>
-      <sheetData sheetId="106" refreshError="1"/>
-      <sheetData sheetId="107" refreshError="1"/>
-      <sheetData sheetId="108" refreshError="1"/>
-      <sheetData sheetId="109" refreshError="1"/>
-      <sheetData sheetId="110" refreshError="1"/>
-      <sheetData sheetId="111" refreshError="1"/>
-      <sheetData sheetId="112" refreshError="1"/>
-      <sheetData sheetId="113" refreshError="1"/>
-      <sheetData sheetId="114" refreshError="1"/>
-      <sheetData sheetId="115" refreshError="1"/>
-      <sheetData sheetId="116" refreshError="1"/>
-      <sheetData sheetId="117" refreshError="1"/>
-      <sheetData sheetId="118" refreshError="1"/>
-      <sheetData sheetId="119" refreshError="1"/>
-      <sheetData sheetId="120" refreshError="1"/>
-      <sheetData sheetId="121" refreshError="1"/>
-      <sheetData sheetId="122" refreshError="1"/>
-      <sheetData sheetId="123" refreshError="1"/>
-      <sheetData sheetId="124" refreshError="1"/>
-      <sheetData sheetId="125" refreshError="1"/>
-      <sheetData sheetId="126" refreshError="1"/>
-      <sheetData sheetId="127" refreshError="1"/>
-      <sheetData sheetId="128" refreshError="1"/>
-      <sheetData sheetId="129" refreshError="1"/>
-      <sheetData sheetId="130" refreshError="1"/>
-      <sheetData sheetId="131" refreshError="1"/>
-      <sheetData sheetId="132" refreshError="1"/>
-      <sheetData sheetId="133" refreshError="1"/>
-      <sheetData sheetId="134" refreshError="1"/>
-      <sheetData sheetId="135" refreshError="1"/>
-      <sheetData sheetId="136" refreshError="1"/>
-      <sheetData sheetId="137" refreshError="1"/>
-      <sheetData sheetId="138" refreshError="1"/>
-      <sheetData sheetId="139" refreshError="1"/>
-      <sheetData sheetId="140" refreshError="1"/>
-      <sheetData sheetId="141" refreshError="1"/>
-      <sheetData sheetId="142" refreshError="1"/>
-      <sheetData sheetId="143" refreshError="1"/>
-      <sheetData sheetId="144" refreshError="1"/>
-      <sheetData sheetId="145" refreshError="1"/>
-      <sheetData sheetId="146" refreshError="1"/>
-      <sheetData sheetId="147" refreshError="1"/>
-      <sheetData sheetId="148" refreshError="1"/>
-      <sheetData sheetId="149" refreshError="1"/>
-      <sheetData sheetId="150" refreshError="1"/>
-      <sheetData sheetId="151" refreshError="1"/>
-      <sheetData sheetId="152" refreshError="1"/>
-      <sheetData sheetId="153" refreshError="1"/>
-      <sheetData sheetId="154" refreshError="1"/>
-      <sheetData sheetId="155" refreshError="1"/>
-      <sheetData sheetId="156" refreshError="1"/>
-      <sheetData sheetId="157" refreshError="1"/>
-      <sheetData sheetId="158" refreshError="1"/>
-      <sheetData sheetId="159" refreshError="1"/>
-      <sheetData sheetId="160" refreshError="1"/>
-      <sheetData sheetId="161" refreshError="1"/>
-      <sheetData sheetId="162" refreshError="1"/>
-      <sheetData sheetId="163" refreshError="1"/>
-      <sheetData sheetId="164" refreshError="1"/>
-      <sheetData sheetId="165" refreshError="1"/>
-      <sheetData sheetId="166" refreshError="1"/>
-      <sheetData sheetId="167" refreshError="1"/>
-      <sheetData sheetId="168" refreshError="1"/>
-      <sheetData sheetId="169" refreshError="1"/>
-      <sheetData sheetId="170" refreshError="1"/>
-      <sheetData sheetId="171" refreshError="1"/>
-      <sheetData sheetId="172" refreshError="1"/>
-      <sheetData sheetId="173" refreshError="1"/>
-      <sheetData sheetId="174" refreshError="1"/>
-      <sheetData sheetId="175" refreshError="1"/>
-      <sheetData sheetId="176" refreshError="1"/>
-      <sheetData sheetId="177" refreshError="1"/>
-      <sheetData sheetId="178" refreshError="1"/>
-      <sheetData sheetId="179" refreshError="1"/>
-      <sheetData sheetId="180" refreshError="1"/>
-      <sheetData sheetId="181" refreshError="1"/>
-      <sheetData sheetId="182" refreshError="1"/>
-      <sheetData sheetId="183" refreshError="1"/>
-      <sheetData sheetId="184" refreshError="1"/>
-      <sheetData sheetId="185" refreshError="1"/>
-      <sheetData sheetId="186" refreshError="1"/>
-      <sheetData sheetId="187" refreshError="1"/>
-      <sheetData sheetId="188" refreshError="1"/>
-      <sheetData sheetId="189" refreshError="1"/>
-      <sheetData sheetId="190" refreshError="1"/>
-      <sheetData sheetId="191" refreshError="1"/>
-      <sheetData sheetId="192" refreshError="1"/>
-      <sheetData sheetId="193" refreshError="1"/>
-      <sheetData sheetId="194" refreshError="1"/>
-      <sheetData sheetId="195" refreshError="1"/>
-      <sheetData sheetId="196" refreshError="1"/>
-      <sheetData sheetId="197" refreshError="1"/>
-      <sheetData sheetId="198" refreshError="1"/>
-      <sheetData sheetId="199" refreshError="1"/>
-      <sheetData sheetId="200" refreshError="1"/>
-      <sheetData sheetId="201" refreshError="1"/>
-      <sheetData sheetId="202" refreshError="1"/>
-      <sheetData sheetId="203" refreshError="1"/>
-      <sheetData sheetId="204" refreshError="1"/>
-      <sheetData sheetId="205" refreshError="1"/>
-      <sheetData sheetId="206" refreshError="1"/>
-      <sheetData sheetId="207" refreshError="1"/>
-      <sheetData sheetId="208" refreshError="1"/>
-      <sheetData sheetId="209" refreshError="1"/>
-      <sheetData sheetId="210" refreshError="1"/>
-      <sheetData sheetId="211" refreshError="1"/>
-      <sheetData sheetId="212" refreshError="1"/>
-      <sheetData sheetId="213" refreshError="1"/>
-      <sheetData sheetId="214" refreshError="1"/>
-      <sheetData sheetId="215" refreshError="1"/>
-      <sheetData sheetId="216" refreshError="1"/>
-      <sheetData sheetId="217" refreshError="1"/>
-      <sheetData sheetId="218" refreshError="1"/>
-      <sheetData sheetId="219" refreshError="1"/>
-      <sheetData sheetId="220" refreshError="1"/>
-      <sheetData sheetId="221" refreshError="1"/>
-      <sheetData sheetId="222" refreshError="1"/>
-      <sheetData sheetId="223" refreshError="1"/>
-      <sheetData sheetId="224" refreshError="1"/>
-      <sheetData sheetId="225" refreshError="1"/>
-      <sheetData sheetId="226" refreshError="1"/>
-      <sheetData sheetId="227" refreshError="1"/>
-      <sheetData sheetId="228" refreshError="1"/>
-      <sheetData sheetId="229" refreshError="1"/>
-      <sheetData sheetId="230" refreshError="1"/>
-      <sheetData sheetId="231" refreshError="1"/>
-      <sheetData sheetId="232" refreshError="1"/>
-      <sheetData sheetId="233" refreshError="1"/>
-      <sheetData sheetId="234" refreshError="1"/>
-      <sheetData sheetId="235" refreshError="1"/>
-      <sheetData sheetId="236" refreshError="1"/>
-      <sheetData sheetId="237" refreshError="1"/>
-      <sheetData sheetId="238" refreshError="1"/>
-      <sheetData sheetId="239" refreshError="1"/>
-      <sheetData sheetId="240" refreshError="1"/>
-      <sheetData sheetId="241" refreshError="1"/>
-      <sheetData sheetId="242" refreshError="1"/>
-      <sheetData sheetId="243" refreshError="1"/>
-      <sheetData sheetId="244" refreshError="1"/>
-      <sheetData sheetId="245" refreshError="1"/>
-      <sheetData sheetId="246" refreshError="1"/>
-      <sheetData sheetId="247" refreshError="1"/>
-      <sheetData sheetId="248" refreshError="1"/>
-      <sheetData sheetId="249" refreshError="1"/>
-      <sheetData sheetId="250" refreshError="1"/>
-      <sheetData sheetId="251" refreshError="1"/>
-      <sheetData sheetId="252" refreshError="1"/>
-      <sheetData sheetId="253" refreshError="1"/>
-      <sheetData sheetId="254" refreshError="1"/>
-      <sheetData sheetId="255" refreshError="1"/>
-      <sheetData sheetId="256" refreshError="1"/>
-      <sheetData sheetId="257" refreshError="1"/>
-      <sheetData sheetId="258" refreshError="1"/>
-      <sheetData sheetId="259" refreshError="1"/>
-      <sheetData sheetId="260" refreshError="1"/>
-      <sheetData sheetId="261" refreshError="1"/>
-      <sheetData sheetId="262" refreshError="1"/>
-      <sheetData sheetId="263" refreshError="1"/>
-      <sheetData sheetId="264" refreshError="1"/>
-      <sheetData sheetId="265" refreshError="1"/>
-      <sheetData sheetId="266" refreshError="1"/>
-      <sheetData sheetId="267" refreshError="1"/>
-      <sheetData sheetId="268" refreshError="1"/>
-      <sheetData sheetId="269" refreshError="1"/>
-      <sheetData sheetId="270" refreshError="1"/>
-      <sheetData sheetId="271" refreshError="1"/>
-      <sheetData sheetId="272" refreshError="1"/>
-      <sheetData sheetId="273" refreshError="1"/>
-      <sheetData sheetId="274" refreshError="1"/>
-      <sheetData sheetId="275" refreshError="1"/>
-      <sheetData sheetId="276" refreshError="1"/>
-      <sheetData sheetId="277" refreshError="1"/>
-      <sheetData sheetId="278" refreshError="1"/>
-      <sheetData sheetId="279" refreshError="1"/>
-      <sheetData sheetId="280" refreshError="1"/>
-      <sheetData sheetId="281" refreshError="1"/>
-      <sheetData sheetId="282" refreshError="1"/>
-      <sheetData sheetId="283" refreshError="1"/>
-      <sheetData sheetId="284" refreshError="1"/>
-      <sheetData sheetId="285" refreshError="1"/>
-      <sheetData sheetId="286" refreshError="1"/>
-      <sheetData sheetId="287"/>
-      <sheetData sheetId="288"/>
-      <sheetData sheetId="289"/>
-      <sheetData sheetId="290"/>
-      <sheetData sheetId="291"/>
-      <sheetData sheetId="292"/>
-      <sheetData sheetId="293"/>
-      <sheetData sheetId="294"/>
-      <sheetData sheetId="295"/>
-      <sheetData sheetId="296"/>
-      <sheetData sheetId="297"/>
-      <sheetData sheetId="298"/>
-      <sheetData sheetId="299"/>
-      <sheetData sheetId="300"/>
-      <sheetData sheetId="301"/>
-      <sheetData sheetId="302"/>
-      <sheetData sheetId="303"/>
-      <sheetData sheetId="304"/>
-      <sheetData sheetId="305"/>
-      <sheetData sheetId="306"/>
-      <sheetData sheetId="307"/>
-      <sheetData sheetId="308"/>
-      <sheetData sheetId="309"/>
-      <sheetData sheetId="310"/>
-      <sheetData sheetId="311"/>
-      <sheetData sheetId="312" refreshError="1"/>
-      <sheetData sheetId="313" refreshError="1"/>
-      <sheetData sheetId="314" refreshError="1"/>
-      <sheetData sheetId="315" refreshError="1"/>
-      <sheetData sheetId="316" refreshError="1"/>
-      <sheetData sheetId="317" refreshError="1"/>
-      <sheetData sheetId="318" refreshError="1"/>
-      <sheetData sheetId="319" refreshError="1"/>
-      <sheetData sheetId="320" refreshError="1"/>
-      <sheetData sheetId="321" refreshError="1"/>
-      <sheetData sheetId="322" refreshError="1"/>
-      <sheetData sheetId="323" refreshError="1"/>
-      <sheetData sheetId="324" refreshError="1"/>
-      <sheetData sheetId="325" refreshError="1"/>
-      <sheetData sheetId="326" refreshError="1"/>
-      <sheetData sheetId="327" refreshError="1"/>
-      <sheetData sheetId="328" refreshError="1"/>
-      <sheetData sheetId="329" refreshError="1"/>
-      <sheetData sheetId="330" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="SUMMARY"/>
       <sheetName val="배관집계표"/>
       <sheetName val="기계내역서"/>
@@ -11251,7 +10583,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11422,7 +10754,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13433,7 +12765,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13468,7 +12800,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13593,7 +12925,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13680,7 +13012,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13705,7 +13037,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -14480,7 +13812,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -16471,7 +15803,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19296,7 +18628,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19707,7 +19039,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -19986,7 +19318,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -20533,7 +19865,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -20852,6 +20184,679 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PROFIT"/>
+      <sheetName val="P-L"/>
+      <sheetName val="BUDg"/>
+      <sheetName val="예산"/>
+      <sheetName val="FAS"/>
+      <sheetName val="FCST"/>
+      <sheetName val="M_H"/>
+      <sheetName val="F_MONY"/>
+      <sheetName val="환보고"/>
+      <sheetName val="환자료"/>
+      <sheetName val="inter"/>
+      <sheetName val="노무비(MM)"/>
+      <sheetName val="노무비(비용)"/>
+      <sheetName val="공사비"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+      <sheetName val="Sheet10"/>
+      <sheetName val="Sheet11"/>
+      <sheetName val="Sheet12"/>
+      <sheetName val="Sheet13"/>
+      <sheetName val="Sheet14"/>
+      <sheetName val="Sheet15"/>
+      <sheetName val="Sheet16"/>
+      <sheetName val="Module1"/>
+      <sheetName val="Module2"/>
+      <sheetName val="Module3"/>
+      <sheetName val="COA-17"/>
+      <sheetName val="C-18"/>
+      <sheetName val="별총"/>
+      <sheetName val="갑지"/>
+      <sheetName val="h-013211-2"/>
+      <sheetName val="SHL"/>
+      <sheetName val="산근"/>
+      <sheetName val="총괄표"/>
+      <sheetName val="Plan"/>
+      <sheetName val="POWER"/>
+      <sheetName val="SG"/>
+      <sheetName val="인원계획"/>
+      <sheetName val="TTL"/>
+      <sheetName val="CAT_5"/>
+      <sheetName val="도"/>
+      <sheetName val="LinerWt"/>
+      <sheetName val="일위대가"/>
+      <sheetName val="기계내역서"/>
+      <sheetName val="12CGOU"/>
+      <sheetName val="INSTR"/>
+      <sheetName val="DESIGN"/>
+      <sheetName val="OCT.FDN"/>
+      <sheetName val="Summary Sheets"/>
+      <sheetName val="EQUIP LIST"/>
+      <sheetName val="CST_STAT"/>
+      <sheetName val="기준"/>
+      <sheetName val="Cash2"/>
+      <sheetName val="Z"/>
+      <sheetName val="공조위생"/>
+      <sheetName val="Input"/>
+      <sheetName val="Activity"/>
+      <sheetName val="Crew"/>
+      <sheetName val="Piping"/>
+      <sheetName val="Pipe Supports"/>
+      <sheetName val="VXXXXX"/>
+      <sheetName val="3. GROUNDING SYSTEM"/>
+      <sheetName val="boq"/>
+      <sheetName val="FILTER"/>
+      <sheetName val="blk"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Process Piping"/>
+      <sheetName val="대비표"/>
+      <sheetName val="EQT-ESTN"/>
+      <sheetName val="당진1,2호기전선관설치및접지4차공사내역서-을지"/>
+      <sheetName val="일위대가표"/>
+      <sheetName val="집계표"/>
+      <sheetName val="노임9월"/>
+      <sheetName val="WORK-VOL"/>
+      <sheetName val="9_Material Rates"/>
+      <sheetName val="1_References"/>
+      <sheetName val="실행내역"/>
+      <sheetName val="rate"/>
+      <sheetName val="단가"/>
+      <sheetName val="Project-A"/>
+      <sheetName val="Chart"/>
+      <sheetName val="EQUIP"/>
+      <sheetName val="견"/>
+      <sheetName val="보온자재단가표"/>
+      <sheetName val="작성기준"/>
+      <sheetName val="Alum."/>
+      <sheetName val="Data"/>
+      <sheetName val="Calc"/>
+      <sheetName val="LEGEND"/>
+      <sheetName val="look-up"/>
+      <sheetName val="AILC004"/>
+      <sheetName val="Fax"/>
+      <sheetName val="Material and Manpower data"/>
+      <sheetName val="Pricing Summary"/>
+      <sheetName val="B"/>
+      <sheetName val="P-HOT.XLS"/>
+      <sheetName val="내역서"/>
+      <sheetName val="SKETCH"/>
+      <sheetName val="2.2 STAFF Scedule"/>
+      <sheetName val="갑지1"/>
+      <sheetName val="PROCURE"/>
+      <sheetName val="조명시설"/>
+      <sheetName val="CALCULATION"/>
+      <sheetName val="PRO_DCI"/>
+      <sheetName val="INST_DCI"/>
+      <sheetName val="HVAC_DCI"/>
+      <sheetName val="PIPE_DCI"/>
+      <sheetName val="환율"/>
+      <sheetName val="CONTENTS"/>
+      <sheetName val="현장지지물물량"/>
+      <sheetName val="Code"/>
+      <sheetName val="금액내역서"/>
+      <sheetName val="steam table"/>
+      <sheetName val="WORK"/>
+      <sheetName val="HORI. VESSEL"/>
+      <sheetName val="BQ"/>
+      <sheetName val="@PRICE1"/>
+      <sheetName val="최종단가"/>
+      <sheetName val="#REF"/>
+      <sheetName val="장비"/>
+      <sheetName val="노무"/>
+      <sheetName val="자재"/>
+      <sheetName val="산근1"/>
+      <sheetName val="토목품셈"/>
+      <sheetName val="견적"/>
+      <sheetName val="General Data"/>
+      <sheetName val="Quantity"/>
+      <sheetName val="BQMPALOC"/>
+      <sheetName val="입출재고현황 (2)"/>
+      <sheetName val="AREA"/>
+      <sheetName val="바닥판"/>
+      <sheetName val="TYPE1"/>
+      <sheetName val="철근량"/>
+      <sheetName val="토목주소"/>
+      <sheetName val="프랜트면허"/>
+      <sheetName val="역T형"/>
+      <sheetName val="PILE"/>
+      <sheetName val="내역"/>
+      <sheetName val="초기화면"/>
+      <sheetName val="95삼성급(본사)"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Rate Analysis"/>
+      <sheetName val="Engg-Exec-2"/>
+      <sheetName val="Site-Precom-2"/>
+      <sheetName val="Collab"/>
+      <sheetName val="Transport"/>
+      <sheetName val="Civil 1"/>
+      <sheetName val="Civil 2"/>
+      <sheetName val="Civil 3"/>
+      <sheetName val="Site 1"/>
+      <sheetName val="Site 2"/>
+      <sheetName val="Site 3"/>
+      <sheetName val="Site Faci"/>
+      <sheetName val="Cont"/>
+      <sheetName val="Engg-Exec-1"/>
+      <sheetName val="Site-Precom-1"/>
+      <sheetName val="Site-Precom-Vendor"/>
+      <sheetName val="Risk-Anal"/>
+      <sheetName val="Ranges"/>
+      <sheetName val="User"/>
+      <sheetName val="insulation"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="97 사업추정(WEKI)"/>
+      <sheetName val="GiaVL"/>
+      <sheetName val="Code_Magics"/>
+      <sheetName val="MP MOB"/>
+      <sheetName val="Inst Matl Table"/>
+      <sheetName val="Inst_Type"/>
+      <sheetName val="Loop Type"/>
+      <sheetName val="Tracing"/>
+      <sheetName val="Hookup"/>
+      <sheetName val="WBS"/>
+      <sheetName val="재료비"/>
+      <sheetName val="Man Hole"/>
+      <sheetName val="대로근거"/>
+      <sheetName val="중로근거"/>
+      <sheetName val="조건표"/>
+      <sheetName val="내역표지"/>
+      <sheetName val="산출2-기기동력"/>
+      <sheetName val="40총괄"/>
+      <sheetName val="40집계"/>
+      <sheetName val="30신설일위대가"/>
+      <sheetName val="30집계표"/>
+      <sheetName val="NSCP견적물량"/>
+      <sheetName val="경비"/>
+      <sheetName val="찍기"/>
+      <sheetName val="TABLES"/>
+      <sheetName val="GROUNDING SYSTEM"/>
+      <sheetName val="El(Increased)"/>
+      <sheetName val="집계표(OPTION)"/>
+      <sheetName val="1. 설계조건 2.단면가정 3. 하중계산"/>
+      <sheetName val="DATA 입력란"/>
+      <sheetName val="공사비예산서(토목분)"/>
+      <sheetName val="가격조사서"/>
+      <sheetName val="연돌일위집계"/>
+      <sheetName val="HANDHOLE(2)"/>
+      <sheetName val="PAD TR보호대기초"/>
+      <sheetName val="가로등기초"/>
+      <sheetName val="Civil"/>
+      <sheetName val="DB@Acess"/>
+      <sheetName val="공사내역"/>
+      <sheetName val="D-3109"/>
+      <sheetName val="당초"/>
+      <sheetName val="배명(단가)"/>
+      <sheetName val="TANK"/>
+      <sheetName val="LTR-2"/>
+      <sheetName val="Car park lease"/>
+      <sheetName val="C1"/>
+      <sheetName val="sum1 (2)"/>
+      <sheetName val="s"/>
+      <sheetName val="대비"/>
+      <sheetName val="철근단위중량"/>
+      <sheetName val="단면가정"/>
+      <sheetName val="설계조건"/>
+      <sheetName val="PI"/>
+      <sheetName val="Master_Data"/>
+      <sheetName val="8.PILE  (돌출)"/>
+      <sheetName val="CTEMCOST"/>
+      <sheetName val="부하(성남)"/>
+      <sheetName val="SILICATE"/>
+      <sheetName val="Default"/>
+      <sheetName val="Utility and Fire flange"/>
+      <sheetName val="IBASE"/>
+      <sheetName val="소화실적"/>
+      <sheetName val="SCHEDULE"/>
+      <sheetName val="bldg list"/>
+      <sheetName val="L V Separator"/>
+      <sheetName val="Eq. Mobilization"/>
+      <sheetName val="노임단가"/>
+      <sheetName val="DRUM"/>
+      <sheetName val="계수시트"/>
+      <sheetName val="MTO REV.2(ARMOR)"/>
+      <sheetName val="Steel-Main Work"/>
+      <sheetName val="parts-V2"/>
+      <sheetName val="전기"/>
+      <sheetName val="ABB"/>
+      <sheetName val="C-301E~305E"/>
+      <sheetName val="M3산출"/>
+      <sheetName val="SM1-09"/>
+      <sheetName val="SM2-09"/>
+      <sheetName val="BAND(200)"/>
+      <sheetName val="BD-09"/>
+      <sheetName val="EL 표면적"/>
+      <sheetName val="MT-09"/>
+      <sheetName val="980731"/>
+      <sheetName val="실행철강하도"/>
+      <sheetName val="jobhist"/>
+      <sheetName val="DATE"/>
+      <sheetName val="MK2-1"/>
+      <sheetName val="초임연봉"/>
+      <sheetName val="시가지우회도로공내역서"/>
+      <sheetName val="TOTAL"/>
+      <sheetName val="영업소실적"/>
+      <sheetName val="D2old"/>
+      <sheetName val="D2"/>
+      <sheetName val="D1.1"/>
+      <sheetName val="Library"/>
+      <sheetName val="D1X"/>
+      <sheetName val="D2X"/>
+      <sheetName val="D2.1"/>
+      <sheetName val="Checklist"/>
+      <sheetName val="D4"/>
+      <sheetName val="Administrative Prices"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Proj Cost Sumry"/>
+      <sheetName val="Wt of Mod."/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Ex-Rate"/>
+      <sheetName val="날개벽(좌,우=60도-4개)"/>
+      <sheetName val="BM"/>
+      <sheetName val="2000년1차"/>
+      <sheetName val="Bid Summary"/>
+      <sheetName val="eq_data"/>
+      <sheetName val="장비검사 사진"/>
+      <sheetName val="15100"/>
+      <sheetName val="SPEC"/>
+      <sheetName val="EAS"/>
+      <sheetName val="HX"/>
+      <sheetName val="백분율"/>
+      <sheetName val="DHEQSUPT"/>
+      <sheetName val="Engineering"/>
+      <sheetName val="PriceSummary"/>
+      <sheetName val="토공정보"/>
+      <sheetName val="두앙"/>
+      <sheetName val="2"/>
+      <sheetName val="Summary_Sheets"/>
+      <sheetName val="OCT_FDN"/>
+      <sheetName val="Pipe_Supports"/>
+      <sheetName val="Process_Piping"/>
+      <sheetName val="EQUIP_LIST"/>
+      <sheetName val="9_Material_Rates"/>
+      <sheetName val="3__GROUNDING_SYSTEM"/>
+      <sheetName val="Material_and_Manpower_data"/>
+      <sheetName val="Pricing_Summary"/>
+      <sheetName val="Alum_"/>
+      <sheetName val="P-HOT_XLS"/>
+      <sheetName val="steam_table"/>
+      <sheetName val="2_2_STAFF_Scedule"/>
+      <sheetName val="Civil_1"/>
+      <sheetName val="Civil_2"/>
+      <sheetName val="Civil_3"/>
+      <sheetName val="Site_1"/>
+      <sheetName val="Site_2"/>
+      <sheetName val="Site_3"/>
+      <sheetName val="Site_Faci"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="HORI__VESSEL"/>
+      <sheetName val="입출재고현황_(2)"/>
+      <sheetName val="Man_Hole"/>
+      <sheetName val="MP_MOB"/>
+      <sheetName val="GROUNDING_SYSTEM"/>
+      <sheetName val="97_사업추정(WEKI)"/>
+      <sheetName val="Inst_Matl_Table"/>
+      <sheetName val="Loop_Type"/>
+      <sheetName val="PAD_TR보호대기초"/>
+      <sheetName val="1__설계조건_2_단면가정_3__하중계산"/>
+      <sheetName val="DATA_입력란"/>
+      <sheetName val="General_Data"/>
+      <sheetName val="Car_park_lease"/>
+      <sheetName val="Utility_and_Fire_flange"/>
+      <sheetName val="sum1_(2)"/>
+      <sheetName val="L_V_Separator"/>
+      <sheetName val="Eq__Mobilization"/>
+      <sheetName val="8_PILE__(돌출)"/>
+      <sheetName val="bldg_list"/>
+      <sheetName val="IN"/>
+      <sheetName val="CASH"/>
+      <sheetName val="MEXICO-C"/>
+      <sheetName val="골조시행"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
+      <sheetData sheetId="64" refreshError="1"/>
+      <sheetData sheetId="65" refreshError="1"/>
+      <sheetData sheetId="66" refreshError="1"/>
+      <sheetData sheetId="67" refreshError="1"/>
+      <sheetData sheetId="68" refreshError="1"/>
+      <sheetData sheetId="69" refreshError="1"/>
+      <sheetData sheetId="70" refreshError="1"/>
+      <sheetData sheetId="71" refreshError="1"/>
+      <sheetData sheetId="72" refreshError="1"/>
+      <sheetData sheetId="73" refreshError="1"/>
+      <sheetData sheetId="74" refreshError="1"/>
+      <sheetData sheetId="75" refreshError="1"/>
+      <sheetData sheetId="76" refreshError="1"/>
+      <sheetData sheetId="77" refreshError="1"/>
+      <sheetData sheetId="78" refreshError="1"/>
+      <sheetData sheetId="79" refreshError="1"/>
+      <sheetData sheetId="80" refreshError="1"/>
+      <sheetData sheetId="81" refreshError="1"/>
+      <sheetData sheetId="82" refreshError="1"/>
+      <sheetData sheetId="83" refreshError="1"/>
+      <sheetData sheetId="84" refreshError="1"/>
+      <sheetData sheetId="85" refreshError="1"/>
+      <sheetData sheetId="86" refreshError="1"/>
+      <sheetData sheetId="87" refreshError="1"/>
+      <sheetData sheetId="88" refreshError="1"/>
+      <sheetData sheetId="89" refreshError="1"/>
+      <sheetData sheetId="90" refreshError="1"/>
+      <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
+      <sheetData sheetId="93" refreshError="1"/>
+      <sheetData sheetId="94" refreshError="1"/>
+      <sheetData sheetId="95" refreshError="1"/>
+      <sheetData sheetId="96" refreshError="1"/>
+      <sheetData sheetId="97" refreshError="1"/>
+      <sheetData sheetId="98" refreshError="1"/>
+      <sheetData sheetId="99" refreshError="1"/>
+      <sheetData sheetId="100" refreshError="1"/>
+      <sheetData sheetId="101" refreshError="1"/>
+      <sheetData sheetId="102" refreshError="1"/>
+      <sheetData sheetId="103" refreshError="1"/>
+      <sheetData sheetId="104" refreshError="1"/>
+      <sheetData sheetId="105" refreshError="1"/>
+      <sheetData sheetId="106" refreshError="1"/>
+      <sheetData sheetId="107" refreshError="1"/>
+      <sheetData sheetId="108" refreshError="1"/>
+      <sheetData sheetId="109" refreshError="1"/>
+      <sheetData sheetId="110" refreshError="1"/>
+      <sheetData sheetId="111" refreshError="1"/>
+      <sheetData sheetId="112" refreshError="1"/>
+      <sheetData sheetId="113" refreshError="1"/>
+      <sheetData sheetId="114" refreshError="1"/>
+      <sheetData sheetId="115" refreshError="1"/>
+      <sheetData sheetId="116" refreshError="1"/>
+      <sheetData sheetId="117" refreshError="1"/>
+      <sheetData sheetId="118" refreshError="1"/>
+      <sheetData sheetId="119" refreshError="1"/>
+      <sheetData sheetId="120" refreshError="1"/>
+      <sheetData sheetId="121" refreshError="1"/>
+      <sheetData sheetId="122" refreshError="1"/>
+      <sheetData sheetId="123" refreshError="1"/>
+      <sheetData sheetId="124" refreshError="1"/>
+      <sheetData sheetId="125" refreshError="1"/>
+      <sheetData sheetId="126" refreshError="1"/>
+      <sheetData sheetId="127" refreshError="1"/>
+      <sheetData sheetId="128" refreshError="1"/>
+      <sheetData sheetId="129" refreshError="1"/>
+      <sheetData sheetId="130" refreshError="1"/>
+      <sheetData sheetId="131" refreshError="1"/>
+      <sheetData sheetId="132" refreshError="1"/>
+      <sheetData sheetId="133" refreshError="1"/>
+      <sheetData sheetId="134" refreshError="1"/>
+      <sheetData sheetId="135" refreshError="1"/>
+      <sheetData sheetId="136" refreshError="1"/>
+      <sheetData sheetId="137" refreshError="1"/>
+      <sheetData sheetId="138" refreshError="1"/>
+      <sheetData sheetId="139" refreshError="1"/>
+      <sheetData sheetId="140" refreshError="1"/>
+      <sheetData sheetId="141" refreshError="1"/>
+      <sheetData sheetId="142" refreshError="1"/>
+      <sheetData sheetId="143" refreshError="1"/>
+      <sheetData sheetId="144" refreshError="1"/>
+      <sheetData sheetId="145" refreshError="1"/>
+      <sheetData sheetId="146" refreshError="1"/>
+      <sheetData sheetId="147" refreshError="1"/>
+      <sheetData sheetId="148" refreshError="1"/>
+      <sheetData sheetId="149" refreshError="1"/>
+      <sheetData sheetId="150" refreshError="1"/>
+      <sheetData sheetId="151" refreshError="1"/>
+      <sheetData sheetId="152" refreshError="1"/>
+      <sheetData sheetId="153" refreshError="1"/>
+      <sheetData sheetId="154" refreshError="1"/>
+      <sheetData sheetId="155" refreshError="1"/>
+      <sheetData sheetId="156" refreshError="1"/>
+      <sheetData sheetId="157" refreshError="1"/>
+      <sheetData sheetId="158" refreshError="1"/>
+      <sheetData sheetId="159" refreshError="1"/>
+      <sheetData sheetId="160" refreshError="1"/>
+      <sheetData sheetId="161" refreshError="1"/>
+      <sheetData sheetId="162" refreshError="1"/>
+      <sheetData sheetId="163" refreshError="1"/>
+      <sheetData sheetId="164" refreshError="1"/>
+      <sheetData sheetId="165" refreshError="1"/>
+      <sheetData sheetId="166" refreshError="1"/>
+      <sheetData sheetId="167" refreshError="1"/>
+      <sheetData sheetId="168" refreshError="1"/>
+      <sheetData sheetId="169" refreshError="1"/>
+      <sheetData sheetId="170" refreshError="1"/>
+      <sheetData sheetId="171" refreshError="1"/>
+      <sheetData sheetId="172" refreshError="1"/>
+      <sheetData sheetId="173" refreshError="1"/>
+      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="175" refreshError="1"/>
+      <sheetData sheetId="176" refreshError="1"/>
+      <sheetData sheetId="177" refreshError="1"/>
+      <sheetData sheetId="178" refreshError="1"/>
+      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="180" refreshError="1"/>
+      <sheetData sheetId="181" refreshError="1"/>
+      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="183" refreshError="1"/>
+      <sheetData sheetId="184" refreshError="1"/>
+      <sheetData sheetId="185" refreshError="1"/>
+      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="187" refreshError="1"/>
+      <sheetData sheetId="188" refreshError="1"/>
+      <sheetData sheetId="189" refreshError="1"/>
+      <sheetData sheetId="190" refreshError="1"/>
+      <sheetData sheetId="191" refreshError="1"/>
+      <sheetData sheetId="192" refreshError="1"/>
+      <sheetData sheetId="193" refreshError="1"/>
+      <sheetData sheetId="194" refreshError="1"/>
+      <sheetData sheetId="195" refreshError="1"/>
+      <sheetData sheetId="196" refreshError="1"/>
+      <sheetData sheetId="197" refreshError="1"/>
+      <sheetData sheetId="198" refreshError="1"/>
+      <sheetData sheetId="199" refreshError="1"/>
+      <sheetData sheetId="200" refreshError="1"/>
+      <sheetData sheetId="201" refreshError="1"/>
+      <sheetData sheetId="202" refreshError="1"/>
+      <sheetData sheetId="203" refreshError="1"/>
+      <sheetData sheetId="204" refreshError="1"/>
+      <sheetData sheetId="205" refreshError="1"/>
+      <sheetData sheetId="206" refreshError="1"/>
+      <sheetData sheetId="207" refreshError="1"/>
+      <sheetData sheetId="208" refreshError="1"/>
+      <sheetData sheetId="209" refreshError="1"/>
+      <sheetData sheetId="210" refreshError="1"/>
+      <sheetData sheetId="211" refreshError="1"/>
+      <sheetData sheetId="212" refreshError="1"/>
+      <sheetData sheetId="213" refreshError="1"/>
+      <sheetData sheetId="214" refreshError="1"/>
+      <sheetData sheetId="215" refreshError="1"/>
+      <sheetData sheetId="216" refreshError="1"/>
+      <sheetData sheetId="217" refreshError="1"/>
+      <sheetData sheetId="218" refreshError="1"/>
+      <sheetData sheetId="219" refreshError="1"/>
+      <sheetData sheetId="220" refreshError="1"/>
+      <sheetData sheetId="221" refreshError="1"/>
+      <sheetData sheetId="222" refreshError="1"/>
+      <sheetData sheetId="223" refreshError="1"/>
+      <sheetData sheetId="224" refreshError="1"/>
+      <sheetData sheetId="225" refreshError="1"/>
+      <sheetData sheetId="226" refreshError="1"/>
+      <sheetData sheetId="227" refreshError="1"/>
+      <sheetData sheetId="228" refreshError="1"/>
+      <sheetData sheetId="229" refreshError="1"/>
+      <sheetData sheetId="230" refreshError="1"/>
+      <sheetData sheetId="231" refreshError="1"/>
+      <sheetData sheetId="232" refreshError="1"/>
+      <sheetData sheetId="233" refreshError="1"/>
+      <sheetData sheetId="234" refreshError="1"/>
+      <sheetData sheetId="235" refreshError="1"/>
+      <sheetData sheetId="236" refreshError="1"/>
+      <sheetData sheetId="237" refreshError="1"/>
+      <sheetData sheetId="238" refreshError="1"/>
+      <sheetData sheetId="239" refreshError="1"/>
+      <sheetData sheetId="240" refreshError="1"/>
+      <sheetData sheetId="241" refreshError="1"/>
+      <sheetData sheetId="242" refreshError="1"/>
+      <sheetData sheetId="243" refreshError="1"/>
+      <sheetData sheetId="244" refreshError="1"/>
+      <sheetData sheetId="245" refreshError="1"/>
+      <sheetData sheetId="246" refreshError="1"/>
+      <sheetData sheetId="247" refreshError="1"/>
+      <sheetData sheetId="248" refreshError="1"/>
+      <sheetData sheetId="249" refreshError="1"/>
+      <sheetData sheetId="250" refreshError="1"/>
+      <sheetData sheetId="251" refreshError="1"/>
+      <sheetData sheetId="252" refreshError="1"/>
+      <sheetData sheetId="253" refreshError="1"/>
+      <sheetData sheetId="254" refreshError="1"/>
+      <sheetData sheetId="255" refreshError="1"/>
+      <sheetData sheetId="256" refreshError="1"/>
+      <sheetData sheetId="257" refreshError="1"/>
+      <sheetData sheetId="258" refreshError="1"/>
+      <sheetData sheetId="259" refreshError="1"/>
+      <sheetData sheetId="260" refreshError="1"/>
+      <sheetData sheetId="261" refreshError="1"/>
+      <sheetData sheetId="262" refreshError="1"/>
+      <sheetData sheetId="263" refreshError="1"/>
+      <sheetData sheetId="264" refreshError="1"/>
+      <sheetData sheetId="265" refreshError="1"/>
+      <sheetData sheetId="266" refreshError="1"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268" refreshError="1"/>
+      <sheetData sheetId="269" refreshError="1"/>
+      <sheetData sheetId="270" refreshError="1"/>
+      <sheetData sheetId="271" refreshError="1"/>
+      <sheetData sheetId="272" refreshError="1"/>
+      <sheetData sheetId="273" refreshError="1"/>
+      <sheetData sheetId="274" refreshError="1"/>
+      <sheetData sheetId="275" refreshError="1"/>
+      <sheetData sheetId="276" refreshError="1"/>
+      <sheetData sheetId="277" refreshError="1"/>
+      <sheetData sheetId="278" refreshError="1"/>
+      <sheetData sheetId="279" refreshError="1"/>
+      <sheetData sheetId="280" refreshError="1"/>
+      <sheetData sheetId="281" refreshError="1"/>
+      <sheetData sheetId="282" refreshError="1"/>
+      <sheetData sheetId="283" refreshError="1"/>
+      <sheetData sheetId="284" refreshError="1"/>
+      <sheetData sheetId="285" refreshError="1"/>
+      <sheetData sheetId="286" refreshError="1"/>
+      <sheetData sheetId="287"/>
+      <sheetData sheetId="288"/>
+      <sheetData sheetId="289"/>
+      <sheetData sheetId="290"/>
+      <sheetData sheetId="291"/>
+      <sheetData sheetId="292"/>
+      <sheetData sheetId="293"/>
+      <sheetData sheetId="294"/>
+      <sheetData sheetId="295"/>
+      <sheetData sheetId="296"/>
+      <sheetData sheetId="297"/>
+      <sheetData sheetId="298"/>
+      <sheetData sheetId="299"/>
+      <sheetData sheetId="300"/>
+      <sheetData sheetId="301"/>
+      <sheetData sheetId="302"/>
+      <sheetData sheetId="303"/>
+      <sheetData sheetId="304"/>
+      <sheetData sheetId="305"/>
+      <sheetData sheetId="306"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312" refreshError="1"/>
+      <sheetData sheetId="313" refreshError="1"/>
+      <sheetData sheetId="314" refreshError="1"/>
+      <sheetData sheetId="315" refreshError="1"/>
+      <sheetData sheetId="316" refreshError="1"/>
+      <sheetData sheetId="317" refreshError="1"/>
+      <sheetData sheetId="318" refreshError="1"/>
+      <sheetData sheetId="319" refreshError="1"/>
+      <sheetData sheetId="320" refreshError="1"/>
+      <sheetData sheetId="321" refreshError="1"/>
+      <sheetData sheetId="322" refreshError="1"/>
+      <sheetData sheetId="323" refreshError="1"/>
+      <sheetData sheetId="324" refreshError="1"/>
+      <sheetData sheetId="325" refreshError="1"/>
+      <sheetData sheetId="326" refreshError="1"/>
+      <sheetData sheetId="327" refreshError="1"/>
+      <sheetData sheetId="328" refreshError="1"/>
+      <sheetData sheetId="329" refreshError="1"/>
+      <sheetData sheetId="330" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -21119,7 +21124,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P1" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD104"/>
+      <selection pane="bottomLeft" activeCell="AW96" sqref="AW96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44144,37 +44149,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AD7:AE16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AB7:AC16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>Z129:AA148 Z96:AA119 Z38:AA44 Z46:AA66 Z7:AA23 Z69:AA93 Z26:AA36 Z285:AA291 Z121:AA126 Z152:AA157 Z161:AA188 Z190:AA215 Z219:AA233 Z237:AA247 Z250:AA255 Z259:AA266 Z270:AA281 Z150:AA150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>X129:Y148 X38:Y44 X150:Y150 X96:Y119 X7:Y23 X121:Y126 X26:Y36 X285:Y291 X46:Y66 X69:Y93 X161:Y188 X190:Y215 X219:Y233 X237:Y247 X250:Y255 X259:Y266 X270:Y281 X152:Y157</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>T129:U148 T150:U150 T38:U44 T69:U93 T7:U23 T46:U67 T26:U36 T285:U291 T121:U126 T152:U157 T161:U188 T190:U215 T219:U233 T237:U247 T250:U255 T259:U266 T270:U281 T96:U119</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
+            <xm:f>'D:\_입찰 UAE FFF\08_Fire Protection\내화검토_mk\Passive Fire Protection Summary\[01_Building List_UAE FFF_2022.07.13_Rev.B.xlsx]Finish Code-Interior'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>V129:W148 V38:W44 V96:W119 V46:W66 V7:W23 V69:W93 V26:W36 V285:W291 V121:W126 V150:W150 V161:W188 V190:W215 V219:W233 V237:W247 V250:W255 V259:W266 V270:W281 V152:W157</xm:sqref>
         </x14:dataValidation>
